--- a/Algoritmo_Rota/Planilhas/BCU/PLN_32_15.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_32_15.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3378.5</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>3607</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2983</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0495819091796875</v>
+        <v>2656</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10, 27, 1, 12, 2, 7, 30, 13, 25, 18, 17, 26, 20, 4, 6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 12 -&gt; 2 -&gt; 27 -&gt; 6 -&gt; 25 -&gt; 26 -&gt; 30 -&gt; 17 -&gt; 13 -&gt; 20 -&gt; 18 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 17 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 19 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.06059026718139648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3042.6</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>3303</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2692</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04969503879547119</v>
+        <v>3018</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 27, 30, 26, 1, 25, 23, 24, 11, 14, 20, 22, 6, 10, 16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 10 -&gt; 11 -&gt; 14 -&gt; 1 -&gt; 26 -&gt; 25 -&gt; 16 -&gt; 8 -&gt; 6 -&gt; 27 -&gt; 30 -&gt; 20 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11 -&gt; 10 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 6 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 20 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06001043319702148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3567.166666666667</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3813</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3236</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06503504912058512</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3716.766666666667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3960</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3343</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.06990752220153809</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3412.933333333333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3625</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3103</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.06976338227589925</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3416.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3732</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3101</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.06977707544962565</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3877.4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4148</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3639</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06215401490529378</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3144.333333333333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3418</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2847</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.05043449401855469</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3505.333333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3821</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2937</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.04999664624532064</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3231.033333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3516</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3009</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.05032107830047607</v>
+        <v>3084</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 16, 10, 9, 27, 24, 8, 1, 26, 6, 25, 21, 5, 12, 20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 6 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 16 -&gt; 8 -&gt; 12 -&gt; 5 -&gt; 10 -&gt; 21 -&gt; 1 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05888748168945312</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BCU/PLN_32_15.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_32_15.xlsx
@@ -454,7 +454,7 @@
         <v>2656</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05612969398498535</v>
+        <v>0.05456089973449707</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BCU/PLN_32_15.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_32_15.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>2913.066666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>2656</v>
+        <v>3201</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05456089973449707</v>
+        <v>2602</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0550059715906779</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2815.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2493</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.05445197423299154</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2930.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3208</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0589149554570516</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3041.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3301</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2665</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05837992032368978</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2927.766666666667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3187</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2708</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05862931410471598</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2927.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3247</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2527</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05870193640391032</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3279.933333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3587</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3063</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05870157877604167</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2692.466666666667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2913</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2383</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.05611888567606608</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3034.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3322</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05596768061319987</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2836.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3081</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2449</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0557794729868571</v>
       </c>
     </row>
   </sheetData>
